--- a/Data/sample_portfolio1_constrs.xlsx
+++ b/Data/sample_portfolio1_constrs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ilmari/Documents/OR semma/entropy-poolin/entropy_pooling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ilmari/Documents/OR semma/entropy-poolin/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBF494-2D76-4D41-9A1C-064195DC1210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10629736-66F1-F14E-ACC1-0F3EB6B1F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14900" xr2:uid="{8A1031AC-B22B-5548-8203-281A2D69F6C9}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,10 +447,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>500000</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
